--- a/test/excel.xlsx
+++ b/test/excel.xlsx
@@ -1,97 +1,519 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB2B3DF-BF56-420F-811F-3CF14FE6360C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926EF948-DF40-4AAD-96C8-8466824C6B8A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>19-12-1988</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Celine</t>
-  </si>
-  <si>
-    <t>Brohan</t>
-  </si>
-  <si>
-    <t>20-12-1994</t>
-  </si>
-  <si>
-    <t>19-5-1950</t>
-  </si>
-  <si>
-    <t>19-4-1985</t>
-  </si>
-  <si>
-    <t>Jesus</t>
-  </si>
-  <si>
-    <t>01-01-0000</t>
-  </si>
-  <si>
-    <t>15-01-1929</t>
-  </si>
-  <si>
-    <t>Celine Document</t>
-  </si>
-  <si>
-    <t>John Document</t>
-  </si>
-  <si>
-    <t>Mike Document</t>
-  </si>
-  <si>
-    <t>Brohan Document</t>
-  </si>
-  <si>
-    <t>Jesus Document</t>
-  </si>
-  <si>
-    <t>Martin Luther Document</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
   <si>
     <t>File</t>
   </si>
   <si>
-    <t>Martin</t>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Dolphin</t>
+  </si>
+  <si>
+    <t>Georgianna</t>
+  </si>
+  <si>
+    <t>Maclennan</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Smoak</t>
+  </si>
+  <si>
+    <t>Clorinda</t>
+  </si>
+  <si>
+    <t>Wathen</t>
+  </si>
+  <si>
+    <t>Hwa</t>
+  </si>
+  <si>
+    <t>Wooster</t>
+  </si>
+  <si>
+    <t>Deeann</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Edie</t>
+  </si>
+  <si>
+    <t>Moy</t>
+  </si>
+  <si>
+    <t>Tad</t>
+  </si>
+  <si>
+    <t>Cress</t>
+  </si>
+  <si>
+    <t>Barbera</t>
+  </si>
+  <si>
+    <t>Perz</t>
+  </si>
+  <si>
+    <t>Keshia</t>
+  </si>
+  <si>
+    <t>Somers</t>
+  </si>
+  <si>
+    <t>Fredia</t>
+  </si>
+  <si>
+    <t>Hevey</t>
+  </si>
+  <si>
+    <t>Georgann</t>
+  </si>
+  <si>
+    <t>Cokley</t>
+  </si>
+  <si>
+    <t>Antonetta</t>
+  </si>
+  <si>
+    <t>Gunderson</t>
+  </si>
+  <si>
+    <t>Despina</t>
+  </si>
+  <si>
+    <t>Hartle</t>
+  </si>
+  <si>
+    <t>Beatris</t>
+  </si>
+  <si>
+    <t>Hanshaw</t>
+  </si>
+  <si>
+    <t>Isis</t>
+  </si>
+  <si>
+    <t>Loudon</t>
+  </si>
+  <si>
+    <t>Inocencia</t>
+  </si>
+  <si>
+    <t>Matthews</t>
+  </si>
+  <si>
+    <t>Trina</t>
+  </si>
+  <si>
+    <t>Laughter</t>
+  </si>
+  <si>
+    <t>Jenette</t>
+  </si>
+  <si>
+    <t>Landau</t>
+  </si>
+  <si>
+    <t>Dawna</t>
+  </si>
+  <si>
+    <t>Ashmore</t>
+  </si>
+  <si>
+    <t>Kasey</t>
+  </si>
+  <si>
+    <t>Hutt</t>
+  </si>
+  <si>
+    <t>Vesta</t>
+  </si>
+  <si>
+    <t>Mickey</t>
+  </si>
+  <si>
+    <t>Rivka</t>
+  </si>
+  <si>
+    <t>Merlino</t>
+  </si>
+  <si>
+    <t>Cindie</t>
+  </si>
+  <si>
+    <t>Hoang</t>
+  </si>
+  <si>
+    <t>Lurline</t>
+  </si>
+  <si>
+    <t>Shifflett</t>
+  </si>
+  <si>
+    <t>Lashanda</t>
+  </si>
+  <si>
+    <t>Leyva</t>
+  </si>
+  <si>
+    <t>Ethelene</t>
+  </si>
+  <si>
+    <t>Reder</t>
+  </si>
+  <si>
+    <t>Yanira</t>
+  </si>
+  <si>
+    <t>Condron</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Mcclendon</t>
+  </si>
+  <si>
+    <t>Hilario</t>
+  </si>
+  <si>
+    <t>Hanline</t>
+  </si>
+  <si>
+    <t>Margery</t>
+  </si>
+  <si>
+    <t>Buzzell</t>
+  </si>
+  <si>
+    <t>Leanna</t>
+  </si>
+  <si>
+    <t>Hoefler</t>
+  </si>
+  <si>
+    <t>Lessie</t>
+  </si>
+  <si>
+    <t>Boshears</t>
+  </si>
+  <si>
+    <t>Margorie</t>
+  </si>
+  <si>
+    <t>Behrendt</t>
+  </si>
+  <si>
+    <t>Eloisa</t>
+  </si>
+  <si>
+    <t>Esch</t>
+  </si>
+  <si>
+    <t>Gidget</t>
+  </si>
+  <si>
+    <t>Kanode</t>
+  </si>
+  <si>
+    <t>Jerica</t>
+  </si>
+  <si>
+    <t>Foulks</t>
+  </si>
+  <si>
+    <t>Felicitas</t>
+  </si>
+  <si>
+    <t>Mersch</t>
+  </si>
+  <si>
+    <t>Suzy</t>
+  </si>
+  <si>
+    <t>Amyx</t>
+  </si>
+  <si>
+    <t>Lynda</t>
+  </si>
+  <si>
+    <t>Colella</t>
+  </si>
+  <si>
+    <t>Marquita</t>
+  </si>
+  <si>
+    <t>Medel</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>Otelia</t>
+  </si>
+  <si>
+    <t>Mcmickle</t>
+  </si>
+  <si>
+    <t>Danilo</t>
+  </si>
+  <si>
+    <t>Varnes</t>
+  </si>
+  <si>
+    <t>Angelia</t>
+  </si>
+  <si>
+    <t>Zerby</t>
+  </si>
+  <si>
+    <t>Merlene</t>
+  </si>
+  <si>
+    <t>Vanzandt</t>
+  </si>
+  <si>
+    <t>Albina</t>
+  </si>
+  <si>
+    <t>Lentine</t>
+  </si>
+  <si>
+    <t>Marhta</t>
+  </si>
+  <si>
+    <t>Bloch</t>
+  </si>
+  <si>
+    <t>Assunta</t>
+  </si>
+  <si>
+    <t>Killeen</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Sir</t>
+  </si>
+  <si>
+    <t>Madam</t>
+  </si>
+  <si>
+    <t>c5698bb9-3291-40f4-bd43-249df7b4b3cf</t>
+  </si>
+  <si>
+    <t>60524152-023f-439a-bccf-9259c7c15d89</t>
+  </si>
+  <si>
+    <t>2f049320-9cb0-45a1-b206-89cbc6b43544</t>
+  </si>
+  <si>
+    <t>340df51f-b809-4ed3-9870-1b05768a3d6f</t>
+  </si>
+  <si>
+    <t>6dfc1948-c16a-49c8-a325-f74e5901fbde</t>
+  </si>
+  <si>
+    <t>2dd8e1f5-ee69-4984-ad34-1e65af1fa543</t>
+  </si>
+  <si>
+    <t>c758fd1f-5d7d-4340-aabf-1b1f363af5d0</t>
+  </si>
+  <si>
+    <t>2d19c56d-f0b2-4dbb-8582-f37b3353ab61</t>
+  </si>
+  <si>
+    <t>e9401032-fc94-4f04-8c1e-eb001cbd5b32</t>
+  </si>
+  <si>
+    <t>4785bf92-54f8-43c8-b7a1-6ffc27e51c49</t>
+  </si>
+  <si>
+    <t>ab940662-c9e8-4a05-b369-4b05c40cc499</t>
+  </si>
+  <si>
+    <t>c689882d-55bd-465c-9537-bc7d1f87e475</t>
+  </si>
+  <si>
+    <t>fef4b0bd-4c9b-4d03-8cbe-0483c4538ff1</t>
+  </si>
+  <si>
+    <t>171fb604-4904-4e31-8b90-ff85744b23e1</t>
+  </si>
+  <si>
+    <t>133338cb-c30a-4b26-92a8-513574814f38</t>
+  </si>
+  <si>
+    <t>cef66476-63f6-4d08-a562-cf0863c05a80</t>
+  </si>
+  <si>
+    <t>bac3fc5f-c693-4bf1-ae23-07011e24d95a</t>
+  </si>
+  <si>
+    <t>8b1ceb33-c5ce-4051-95c4-a4d7e78d7e09</t>
+  </si>
+  <si>
+    <t>0eacdda0-475d-4d27-ad59-569521c51228</t>
+  </si>
+  <si>
+    <t>5da4295f-0c77-47a5-8e3f-b086fa91e6f1</t>
+  </si>
+  <si>
+    <t>c606099e-9d30-4472-be39-fa6897c5c9db</t>
+  </si>
+  <si>
+    <t>3a788118-a1a4-4156-b92d-6f119dd087a7</t>
+  </si>
+  <si>
+    <t>331015b0-bf63-4327-b443-5a643fd18cc5</t>
+  </si>
+  <si>
+    <t>e9bbb79c-6eb9-40c6-974f-e4e4f15e2084</t>
+  </si>
+  <si>
+    <t>99c8b933-d7e6-4de3-84c1-5a58dee12c3a</t>
+  </si>
+  <si>
+    <t>8bfc4052-4957-48af-88fa-ab18a3a55670</t>
+  </si>
+  <si>
+    <t>2f9fc7e9-1f5f-4a38-bdcd-318d4dc2c779</t>
+  </si>
+  <si>
+    <t>db0270ad-4902-49ee-9d60-3b7cddc9f0b6</t>
+  </si>
+  <si>
+    <t>79aa2cd7-0ab8-4076-ad5d-a350b1045e3f</t>
+  </si>
+  <si>
+    <t>23c2eef1-bc62-41f9-9b90-c95ce8e1d6be</t>
+  </si>
+  <si>
+    <t>06e080eb-9091-4227-852e-cbac7e9f76ef</t>
+  </si>
+  <si>
+    <t>a3b2313f-108f-4b81-8838-737ee469a417</t>
+  </si>
+  <si>
+    <t>4da33349-9ebb-43b9-bacf-4f80c5237594</t>
+  </si>
+  <si>
+    <t>78827925-c868-4742-b1c0-0f75f0783961</t>
+  </si>
+  <si>
+    <t>2379b605-d99c-474a-b2a1-edb0e654fda0</t>
+  </si>
+  <si>
+    <t>60980d99-177b-45c5-b366-b0487d861cd0</t>
+  </si>
+  <si>
+    <t>ecdae51a-4e3b-4d11-9d9d-b143a5d9602e</t>
+  </si>
+  <si>
+    <t>53403f78-273d-4b84-8727-bb02423e4e42</t>
+  </si>
+  <si>
+    <t>7dc70e2d-6968-4b5d-b4e5-35a2ff6394c4</t>
+  </si>
+  <si>
+    <t>b48bf474-e6b9-44bd-b8a9-35e76ff9b0a2</t>
+  </si>
+  <si>
+    <t>c33d989f-263c-4e21-8c32-3c41facba633</t>
+  </si>
+  <si>
+    <t>d0f950e5-9eb3-4590-9e2a-3fad1a4710fa</t>
+  </si>
+  <si>
+    <t>12c8fc17-a142-402f-afa9-0669458970ba</t>
+  </si>
+  <si>
+    <t>8a03110d-1ef1-4094-8d03-944620e4554f</t>
+  </si>
+  <si>
+    <t>17a359f0-e09a-4d3d-86b9-5947fa6443b0</t>
+  </si>
+  <si>
+    <t>646f37bb-30c2-40e9-9bef-cbd98059646d</t>
+  </si>
+  <si>
+    <t>b0102eb0-8eec-4909-96a9-afc3dd30d5d7</t>
+  </si>
+  <si>
+    <t>17056993-eca0-4027-83c7-2eba3eafb826</t>
+  </si>
+  <si>
+    <t>0758eee6-4ca6-4c3b-82e7-547240e38de0</t>
+  </si>
+  <si>
+    <t>1948c30c-f23e-41de-80cd-f2149bddb653</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,14 +543,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,114 +830,1494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="4"/>
-    <col min="2" max="2" width="20.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="str">
+        <f>C2&amp;" Document"</f>
+        <v>Julio Document</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>27058</v>
+      </c>
+      <c r="F2" s="1">
+        <f ca="1">TODAY()</f>
+        <v>43383</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="3">
+        <f ca="1">ROUND(RAND()*5000,0)</f>
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="str">
+        <f t="shared" ref="A3:A51" si="0">C3&amp;" Document"</f>
+        <v>Georgianna Document</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30959</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F51" ca="1" si="1">TODAY()</f>
+        <v>43383</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H51" ca="1" si="2">ROUND(RAND()*5000,0)</f>
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Russell Document</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>22962</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Clorinda Document</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>21274</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Hwa Document</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>34853</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Deeann Document</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>21896</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Edie Document</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20833</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Tad Document</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25056</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Barbera Document</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1">
+        <v>31583</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Keshia Document</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E11" s="1">
+        <v>16862</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Fredia Document</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1">
+        <v>21390</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Georgann Document</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1">
+        <v>16787</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Antonetta Document</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1">
+        <v>23212</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Despina Document</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1">
+        <v>26174</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Beatris Document</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="1">
+        <v>25354</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Isis Document</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20663</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Inocencia Document</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1">
+        <v>26978</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Trina Document</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25490</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Jenette Document</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1">
+        <v>23772</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Dawna Document</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1">
+        <v>33727</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Kasey Document</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21184</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Vesta Document</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1">
+        <v>32768</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Rivka Document</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1">
+        <v>23298</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cindie Document</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="1">
+        <v>35460</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lurline Document</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1">
+        <v>28472</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lashanda Document</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="1">
+        <v>32282</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ethelene Document</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1">
+        <v>28418</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Yanira Document</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="1">
+        <v>33621</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Christian Document</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="1">
+        <v>36826</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Hilario Document</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="1">
+        <v>16069</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" ca="1" si="2"/>
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>9.15</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9.15</v>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Margery Document</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="1">
+        <v>27128</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Leanna Document</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="1">
+        <v>19216</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lessie Document</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="1">
+        <v>27446</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Margorie Document</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="1">
+        <v>18096</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G35" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Eloisa Document</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="1">
+        <v>32384</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G36" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Gidget Document</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="1">
+        <v>31797</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Jerica Document</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" s="1">
+        <v>33685</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G38" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Felicitas Document</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="1">
+        <v>26177</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G39" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Suzy Document</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="1">
+        <v>32890</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Lynda Document</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="1">
+        <v>21311</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Marquita Document</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="1">
+        <v>22228</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Laurel Document</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="1">
+        <v>16508</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G43" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Otelia Document</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="1">
+        <v>37274</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Danilo Document</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="1">
+        <v>19346</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G45" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Angelia Document</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="1">
+        <v>22765</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Merlene Document</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="1">
+        <v>33193</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G47" t="s">
+        <v>153</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Albina Document</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="1">
+        <v>32458</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Marhta Document</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="1">
+        <v>19472</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Assunta Document</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="1">
+        <v>20333</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G50" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Gerardo Document</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="1">
+        <v>32789</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43383</v>
+      </c>
+      <c r="G51" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3197</v>
       </c>
     </row>
   </sheetData>

--- a/test/excel.xlsx
+++ b/test/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926EF948-DF40-4AAD-96C8-8466824C6B8A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05170BF-E059-45FF-9549-A0F7723AC77C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
   <si>
     <t>File</t>
   </si>
@@ -351,160 +351,7 @@
     <t>Madam</t>
   </si>
   <si>
-    <t>c5698bb9-3291-40f4-bd43-249df7b4b3cf</t>
-  </si>
-  <si>
-    <t>60524152-023f-439a-bccf-9259c7c15d89</t>
-  </si>
-  <si>
-    <t>2f049320-9cb0-45a1-b206-89cbc6b43544</t>
-  </si>
-  <si>
-    <t>340df51f-b809-4ed3-9870-1b05768a3d6f</t>
-  </si>
-  <si>
-    <t>6dfc1948-c16a-49c8-a325-f74e5901fbde</t>
-  </si>
-  <si>
-    <t>2dd8e1f5-ee69-4984-ad34-1e65af1fa543</t>
-  </si>
-  <si>
-    <t>c758fd1f-5d7d-4340-aabf-1b1f363af5d0</t>
-  </si>
-  <si>
-    <t>2d19c56d-f0b2-4dbb-8582-f37b3353ab61</t>
-  </si>
-  <si>
-    <t>e9401032-fc94-4f04-8c1e-eb001cbd5b32</t>
-  </si>
-  <si>
-    <t>4785bf92-54f8-43c8-b7a1-6ffc27e51c49</t>
-  </si>
-  <si>
-    <t>ab940662-c9e8-4a05-b369-4b05c40cc499</t>
-  </si>
-  <si>
-    <t>c689882d-55bd-465c-9537-bc7d1f87e475</t>
-  </si>
-  <si>
-    <t>fef4b0bd-4c9b-4d03-8cbe-0483c4538ff1</t>
-  </si>
-  <si>
-    <t>171fb604-4904-4e31-8b90-ff85744b23e1</t>
-  </si>
-  <si>
-    <t>133338cb-c30a-4b26-92a8-513574814f38</t>
-  </si>
-  <si>
-    <t>cef66476-63f6-4d08-a562-cf0863c05a80</t>
-  </si>
-  <si>
-    <t>bac3fc5f-c693-4bf1-ae23-07011e24d95a</t>
-  </si>
-  <si>
-    <t>8b1ceb33-c5ce-4051-95c4-a4d7e78d7e09</t>
-  </si>
-  <si>
-    <t>0eacdda0-475d-4d27-ad59-569521c51228</t>
-  </si>
-  <si>
-    <t>5da4295f-0c77-47a5-8e3f-b086fa91e6f1</t>
-  </si>
-  <si>
-    <t>c606099e-9d30-4472-be39-fa6897c5c9db</t>
-  </si>
-  <si>
-    <t>3a788118-a1a4-4156-b92d-6f119dd087a7</t>
-  </si>
-  <si>
-    <t>331015b0-bf63-4327-b443-5a643fd18cc5</t>
-  </si>
-  <si>
-    <t>e9bbb79c-6eb9-40c6-974f-e4e4f15e2084</t>
-  </si>
-  <si>
-    <t>99c8b933-d7e6-4de3-84c1-5a58dee12c3a</t>
-  </si>
-  <si>
-    <t>8bfc4052-4957-48af-88fa-ab18a3a55670</t>
-  </si>
-  <si>
-    <t>2f9fc7e9-1f5f-4a38-bdcd-318d4dc2c779</t>
-  </si>
-  <si>
-    <t>db0270ad-4902-49ee-9d60-3b7cddc9f0b6</t>
-  </si>
-  <si>
-    <t>79aa2cd7-0ab8-4076-ad5d-a350b1045e3f</t>
-  </si>
-  <si>
-    <t>23c2eef1-bc62-41f9-9b90-c95ce8e1d6be</t>
-  </si>
-  <si>
-    <t>06e080eb-9091-4227-852e-cbac7e9f76ef</t>
-  </si>
-  <si>
-    <t>a3b2313f-108f-4b81-8838-737ee469a417</t>
-  </si>
-  <si>
-    <t>4da33349-9ebb-43b9-bacf-4f80c5237594</t>
-  </si>
-  <si>
-    <t>78827925-c868-4742-b1c0-0f75f0783961</t>
-  </si>
-  <si>
-    <t>2379b605-d99c-474a-b2a1-edb0e654fda0</t>
-  </si>
-  <si>
-    <t>60980d99-177b-45c5-b366-b0487d861cd0</t>
-  </si>
-  <si>
-    <t>ecdae51a-4e3b-4d11-9d9d-b143a5d9602e</t>
-  </si>
-  <si>
-    <t>53403f78-273d-4b84-8727-bb02423e4e42</t>
-  </si>
-  <si>
-    <t>7dc70e2d-6968-4b5d-b4e5-35a2ff6394c4</t>
-  </si>
-  <si>
-    <t>b48bf474-e6b9-44bd-b8a9-35e76ff9b0a2</t>
-  </si>
-  <si>
-    <t>c33d989f-263c-4e21-8c32-3c41facba633</t>
-  </si>
-  <si>
-    <t>d0f950e5-9eb3-4590-9e2a-3fad1a4710fa</t>
-  </si>
-  <si>
-    <t>12c8fc17-a142-402f-afa9-0669458970ba</t>
-  </si>
-  <si>
-    <t>8a03110d-1ef1-4094-8d03-944620e4554f</t>
-  </si>
-  <si>
-    <t>17a359f0-e09a-4d3d-86b9-5947fa6443b0</t>
-  </si>
-  <si>
-    <t>646f37bb-30c2-40e9-9bef-cbd98059646d</t>
-  </si>
-  <si>
-    <t>b0102eb0-8eec-4909-96a9-afc3dd30d5d7</t>
-  </si>
-  <si>
-    <t>17056993-eca0-4027-83c7-2eba3eafb826</t>
-  </si>
-  <si>
-    <t>0758eee6-4ca6-4c3b-82e7-547240e38de0</t>
-  </si>
-  <si>
-    <t>1948c30c-f23e-41de-80cd-f2149bddb653</t>
-  </si>
-  <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
   </si>
 </sst>
 </file>
@@ -830,21 +677,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="20.3671875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -861,16 +707,13 @@
         <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="str">
         <f>C2&amp;" Document"</f>
         <v>Julio Document</v>
@@ -889,17 +732,14 @@
       </c>
       <c r="F2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43383</v>
-      </c>
-      <c r="G2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="3">
+        <v>43384</v>
+      </c>
+      <c r="G2" s="3">
         <f ca="1">ROUND(RAND()*5000,0)</f>
-        <v>3745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="str">
         <f t="shared" ref="A3:A51" si="0">C3&amp;" Document"</f>
         <v>Georgianna Document</v>
@@ -918,17 +758,14 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F51" ca="1" si="1">TODAY()</f>
-        <v>43383</v>
-      </c>
-      <c r="G3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H51" ca="1" si="2">ROUND(RAND()*5000,0)</f>
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G51" ca="1" si="2">ROUND(RAND()*5000,0)</f>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Russell Document</v>
@@ -947,17 +784,14 @@
       </c>
       <c r="F4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Clorinda Document</v>
@@ -976,17 +810,14 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Hwa Document</v>
@@ -1005,17 +836,14 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Deeann Document</v>
@@ -1034,17 +862,14 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Edie Document</v>
@@ -1063,17 +888,14 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Tad Document</v>
@@ -1092,17 +914,14 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Barbera Document</v>
@@ -1121,17 +940,14 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Keshia Document</v>
@@ -1150,17 +966,14 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Fredia Document</v>
@@ -1179,17 +992,14 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Georgann Document</v>
@@ -1208,17 +1018,14 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>733</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Antonetta Document</v>
@@ -1237,17 +1044,14 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Despina Document</v>
@@ -1266,17 +1070,14 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Beatris Document</v>
@@ -1295,17 +1096,14 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Isis Document</v>
@@ -1324,17 +1122,14 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3726</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Inocencia Document</v>
@@ -1353,17 +1148,14 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Trina Document</v>
@@ -1382,17 +1174,14 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Jenette Document</v>
@@ -1411,17 +1200,14 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3881</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Dawna Document</v>
@@ -1440,17 +1226,14 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Kasey Document</v>
@@ -1469,17 +1252,14 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Vesta Document</v>
@@ -1498,17 +1278,14 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Rivka Document</v>
@@ -1527,17 +1304,14 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Cindie Document</v>
@@ -1556,17 +1330,14 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4655</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Lurline Document</v>
@@ -1585,17 +1356,14 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G26" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Lashanda Document</v>
@@ -1614,17 +1382,14 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Ethelene Document</v>
@@ -1643,17 +1408,14 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G28" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>670</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Yanira Document</v>
@@ -1672,17 +1434,14 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G29" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Christian Document</v>
@@ -1701,17 +1460,14 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4727</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Hilario Document</v>
@@ -1730,17 +1486,14 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G31" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Margery Document</v>
@@ -1759,17 +1512,14 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G32" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>921</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Leanna Document</v>
@@ -1788,17 +1538,14 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G33" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Lessie Document</v>
@@ -1817,17 +1564,14 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G34" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>830</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Margorie Document</v>
@@ -1846,17 +1590,14 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G35" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Eloisa Document</v>
@@ -1875,17 +1616,14 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G36" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3088</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Gidget Document</v>
@@ -1904,17 +1642,14 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G37" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Jerica Document</v>
@@ -1933,17 +1668,14 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G38" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Felicitas Document</v>
@@ -1962,17 +1694,14 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G39" t="s">
-        <v>145</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4062</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Suzy Document</v>
@@ -1991,17 +1720,14 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G40" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Lynda Document</v>
@@ -2020,17 +1746,14 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G41" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Marquita Document</v>
@@ -2049,17 +1772,14 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G42" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Laurel Document</v>
@@ -2078,17 +1798,14 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G43" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4916</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Otelia Document</v>
@@ -2107,17 +1824,14 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G44" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3602</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Danilo Document</v>
@@ -2136,17 +1850,14 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3383</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Angelia Document</v>
@@ -2165,17 +1876,14 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G46" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Merlene Document</v>
@@ -2194,17 +1902,14 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G47" t="s">
-        <v>153</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Albina Document</v>
@@ -2223,17 +1928,14 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G48" t="s">
-        <v>154</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Marhta Document</v>
@@ -2252,17 +1954,14 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G49" t="s">
-        <v>155</v>
-      </c>
-      <c r="H49" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Assunta Document</v>
@@ -2281,17 +1980,14 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G50" t="s">
-        <v>156</v>
-      </c>
-      <c r="H50" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>825</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>43384</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Gerardo Document</v>
@@ -2310,14 +2006,11 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43383</v>
-      </c>
-      <c r="G51" t="s">
-        <v>157</v>
-      </c>
-      <c r="H51" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3197</v>
+        <v>43384</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3259</v>
       </c>
     </row>
   </sheetData>
